--- a/Assets/Inventory/Babylon - Asset_Inventory_Template.xlsx
+++ b/Assets/Inventory/Babylon - Asset_Inventory_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mas_c\OneDrive\Escritorio\Unity Projects Desktop\Babylon Rising\Babylon\Assets\Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BF731-2126-4367-9DA5-5513BF470F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA3324D-C3B9-4B2E-84BC-CD2511D327FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Asset Group</t>
   </si>
@@ -152,13 +152,37 @@
   </si>
   <si>
     <t>ok to use and modify</t>
+  </si>
+  <si>
+    <t>Editor Rich Presence</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/tools/level-design/mast-modular-asset-staging-tool-154939</t>
+  </si>
+  <si>
+    <t>MAST is an editor extension for Unity, primarily intended for staging 3D modular assets. It is very useful for making scenes and levels that are based off of a grid. Instead of having to drag a prefab into the inspector, then manually move, rotate and flip it, MAST provides a simple interface that lets you do all the above before ever placing the item in your scene.</t>
+  </si>
+  <si>
+    <t>MAST - Modular Asset Staging Tool</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Fertile Soils Productions</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Level-Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +242,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,10 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -255,8 +288,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,7 +607,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -604,8 +639,20 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
@@ -613,8 +660,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E4" s="3"/>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
@@ -684,6 +748,9 @@
     <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{48FE5082-C516-4471-AB76-F95079EFF179}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Assets/Inventory/Babylon - Asset_Inventory_Template.xlsx
+++ b/Assets/Inventory/Babylon - Asset_Inventory_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mas_c\OneDrive\Escritorio\Unity Projects Desktop\Babylon Rising\Babylon\Assets\Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA3324D-C3B9-4B2E-84BC-CD2511D327FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822C41E2-FD98-4EC1-B476-D8433E039939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>

--- a/Assets/Inventory/Babylon - Asset_Inventory_Template.xlsx
+++ b/Assets/Inventory/Babylon - Asset_Inventory_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mas_c\OneDrive\Escritorio\Unity Projects Desktop\Babylon Rising\Babylon\Assets\Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822C41E2-FD98-4EC1-B476-D8433E039939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15ED3C9-44F7-4861-ACE1-63D733C3882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Asset Group</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>Level-Design</t>
+  </si>
+  <si>
+    <t>Turn Based Strategy Framework</t>
+  </si>
+  <si>
+    <t>Turn Based Strategy Framework is an easily customizable tool that will help you release your turn-based game in no time!</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/templates/systems/turn-based-strategy-framework-50282</t>
+  </si>
+  <si>
+    <t>Crooked Head</t>
+  </si>
+  <si>
+    <t>License Type</t>
+  </si>
+  <si>
+    <t>EULA - Single Entity - Paid</t>
   </si>
 </sst>
 </file>
@@ -604,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA96DA-6290-1643-8A0A-EF905F58FA39}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -617,10 +635,12 @@
     <col min="4" max="4" width="17.796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.69921875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.19921875" style="3"/>
+    <col min="7" max="7" width="11.19921875" style="3"/>
+    <col min="8" max="8" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +662,11 @@
       <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -653,14 +676,14 @@
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -679,53 +702,73 @@
       <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E5" s="3"/>
-      <c r="H5" s="9" t="s">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
     </row>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -750,6 +793,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{48FE5082-C516-4471-AB76-F95079EFF179}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{698FDBBE-3AE6-4D46-B6C9-C9092029B238}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
